--- a/BBGG_iOS/BangBangGokGok/BBGG_cityhalls.xlsx
+++ b/BBGG_iOS/BangBangGokGok/BBGG_cityhalls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwontaewoo/Documents/KwonTaewoo/Programming/BBGG_GoldenClinic/BBGG_iOS/BangBangGokGok/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A230A6-C58B-B046-BA41-25E438967AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01D81C4-5F6E-B34B-A5BE-45A6772FF5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{89A5EECC-2BDE-2D4F-BCDD-F5771E533428}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>지역명</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>경도</t>
+  </si>
+  <si>
+    <t>슬로건</t>
   </si>
 </sst>
 </file>
@@ -399,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E72460-771F-884D-BB04-412EBC448760}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,6 +420,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
